--- a/input/ROC Curve Test Data_Made Up (1).xlsx
+++ b/input/ROC Curve Test Data_Made Up (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Current Students\Mike Chapman\Advion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0116fa83d1245d4/Documents/GitHub/Roc-Graph/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89298D0A-B2D6-4017-AF27-AE3DFF59BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{89298D0A-B2D6-4017-AF27-AE3DFF59BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43947DE3-F5F7-47AB-ABAF-EBE06885198C}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{59CEA8AB-783A-4C8D-86EC-CD4065A3E39A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{59CEA8AB-783A-4C8D-86EC-CD4065A3E39A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,20 +636,6 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -661,11 +647,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,21 +1002,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7C3318-3D19-40B3-9EC6-CEE6A9C886EB}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="72.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="72.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1045,26 +1047,26 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -2173,11 +2175,11 @@
       <c r="M30" s="6">
         <v>2</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="N30" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -2340,11 +2342,11 @@
       <c r="M34" s="6">
         <v>2</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -2549,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -3000,7 +3002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -3164,10 +3166,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>4</v>
       </c>
@@ -3177,7 +3179,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>5</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>6</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>7</v>
       </c>
@@ -3219,23 +3221,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="H61" s="17" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="H61" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -3247,19 +3249,19 @@
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-    </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+    </row>
+    <row r="64" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>9</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="42" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>13</v>
       </c>
@@ -3323,31 +3325,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="10">
         <v>0</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>54365</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="10">
         <v>4</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>2452345</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="10">
         <v>10</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>23452</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="10">
         <v>25</v>
       </c>
@@ -3498,14 +3500,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3513,12 +3515,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -3532,61 +3534,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFF2534-FD81-4305-8624-9A5A960E92EA}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="27" t="b">
+      <c r="C3" s="21" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30" t="s">
+    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3600,26 +3597,26 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -3700,11 +3697,11 @@
       <c r="M9" s="6">
         <v>2</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -3744,29 +3741,29 @@
       <c r="M10" s="6">
         <v>2</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D18" t="s">
@@ -3775,7 +3772,7 @@
       <c r="G18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="28" t="s">
         <v>98</v>
       </c>
       <c r="I18" t="s">
@@ -3784,7 +3781,7 @@
       <c r="L18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="28" t="s">
         <v>98</v>
       </c>
       <c r="N18" t="s">
@@ -3794,7 +3791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>170</v>
       </c>
@@ -3823,7 +3820,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>75</v>
       </c>
@@ -3834,7 +3831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -3864,7 +3861,7 @@
       <c r="C23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="22" t="s">
         <v>88</v>
       </c>
       <c r="F23" t="s">
@@ -3880,14 +3877,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G24" t="b">
@@ -3897,37 +3894,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="27" t="s">
         <v>91</v>
       </c>
       <c r="H25" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="27" t="s">
         <v>91</v>
       </c>
       <c r="L25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>76</v>
       </c>
@@ -3935,7 +3932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -3943,13 +3940,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C32" t="s">
